--- a/src/main/resources/excel_template/faulttemplate.xlsx
+++ b/src/main/resources/excel_template/faulttemplate.xlsx
@@ -13,7 +13,7 @@
     <sheet name="全部未闭环" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">周数据!$A$16:$AE$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">周数据!$V$1:$V$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">与上周差值图表!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">全部未闭环!$A$11:$AE$11</definedName>
   </definedNames>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="117">
   <si>
-    <t>{{week}}</t>
+    <t>{{year}}第{{week}}周</t>
   </si>
   <si>
     <t>部门</t>
@@ -330,112 +330,16 @@
     <t/>
   </si>
   <si>
-    <t>GZ2307020001</t>
-  </si>
-  <si>
-    <t>奥瑶区间手报14-M17故障报警</t>
-  </si>
-  <si>
-    <t>防水型带地址手动报警按钮（带电话插孔）</t>
-  </si>
-  <si>
-    <t>GD2307020001</t>
-  </si>
-  <si>
-    <t>90000603753</t>
-  </si>
-  <si>
-    <t>完工确认</t>
-  </si>
-  <si>
-    <t>浙江幸福轨道-乘务中心</t>
-  </si>
-  <si>
-    <t>中铁通轨道运营有限公司-浙江盈华安全科技有限公司</t>
-  </si>
-  <si>
-    <t>徐凯达</t>
-  </si>
-  <si>
-    <t>15958239932</t>
-  </si>
-  <si>
-    <t>2023-07-02 08:21:46</t>
-  </si>
-  <si>
-    <t>2023-07-01 10:22:00</t>
-  </si>
-  <si>
-    <t>S1线</t>
-  </si>
-  <si>
-    <t>奥体中心站</t>
-  </si>
-  <si>
-    <t>FAS系统</t>
-  </si>
-  <si>
-    <t>手动报警按钮</t>
-  </si>
-  <si>
-    <t>GZ2306280003</t>
-  </si>
-  <si>
-    <t>排风1无法远控</t>
-  </si>
-  <si>
-    <t>远程I/O控制箱</t>
-  </si>
-  <si>
-    <t>GD2306280003</t>
-  </si>
-  <si>
-    <t>90000548847</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>中铁通轨道运营有限公司-通号部-通信科-自动化二工区</t>
-  </si>
-  <si>
-    <t>蔡祖镜</t>
-  </si>
-  <si>
-    <t>13221163586</t>
-  </si>
-  <si>
-    <t>2023-06-28 14:09:44</t>
-  </si>
-  <si>
-    <t>2023-06-28 10:15:00</t>
-  </si>
-  <si>
-    <t>潘桥站</t>
-  </si>
-  <si>
-    <t>BAS系统</t>
-  </si>
-  <si>
-    <t>就地控制箱</t>
-  </si>
-  <si>
     <t>2023年第7周</t>
   </si>
   <si>
     <t>上周</t>
   </si>
   <si>
-    <t>{{list1.faultDetail}}</t>
-  </si>
-  <si>
     <t>2023年第14周</t>
   </si>
   <si>
     <t>本周</t>
-  </si>
-  <si>
-    <t>{{list2.faultDetail}}</t>
   </si>
   <si>
     <t>第1周</t>
@@ -483,10 +387,7 @@
     <t>第15周</t>
   </si>
   <si>
-    <t>{{year}}周故障折线图</t>
-  </si>
-  <si>
-    <t>{{year}}第{{week}}周</t>
+    <t>2023周故障折线图</t>
   </si>
   <si>
     <r>
@@ -1730,12 +1631,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2906,7 +2801,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>{{year}}周故障折线图</c:v>
+                  <c:v>2023周故障折线图</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10924,8 +10819,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21590" y="1218565"/>
-        <a:ext cx="1387475" cy="1527175"/>
+        <a:off x="21590" y="1209040"/>
+        <a:ext cx="1387475" cy="1536700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10954,8 +10849,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1458595" y="1199515"/>
-        <a:ext cx="2648585" cy="1593215"/>
+        <a:off x="1458595" y="1189990"/>
+        <a:ext cx="2648585" cy="1602740"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10984,8 +10879,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4187190" y="1175385"/>
-        <a:ext cx="2349500" cy="1656080"/>
+        <a:off x="4187190" y="1165860"/>
+        <a:ext cx="2349500" cy="1665605"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11014,8 +10909,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6725285" y="1212215"/>
-        <a:ext cx="2409825" cy="1753870"/>
+        <a:off x="6725285" y="1202690"/>
+        <a:ext cx="2409825" cy="1763395"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14981,11 +14876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AE105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15097,7 +14992,7 @@
       </c>
       <c r="H3" s="7">
         <f>G10-H10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7">
         <f>COUNTIFS(V$17:V$9880,"*信号*")</f>
@@ -15121,7 +15016,7 @@
       </c>
       <c r="N3" s="7">
         <f>SUM(C3:M3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:14">
@@ -15151,7 +15046,7 @@
       </c>
       <c r="H4" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="42">
         <f t="shared" si="0"/>
@@ -15175,7 +15070,7 @@
       </c>
       <c r="N4" s="7">
         <f>SUM(C4:M4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:14">
@@ -15237,9 +15132,9 @@
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="42" t="e">
+      <c r="C6" s="42">
         <f>与上周差值图表!C4</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="D6" s="42">
         <f>与上周差值图表!D4</f>
@@ -15281,9 +15176,9 @@
         <f>与上周差值图表!M4</f>
         <v>0</v>
       </c>
-      <c r="N6" s="42" t="e">
+      <c r="N6" s="42">
         <f>与上周差值图表!N4</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:14">
@@ -15389,11 +15284,11 @@
       </c>
       <c r="G10" s="11">
         <f>COUNTIFS(V$17:V$9880,"*综合监控*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="11">
         <f>COUNTIFS(W$17:W$9880,"*FAS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f>COUNTIFS(V$17:V$9880,"*综合监控*",H$17:H$9880,"*派工*")</f>
@@ -16434,101 +16329,7 @@
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="38" hidden="1" spans="1:31">
-      <c r="A40" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N40" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="P40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="R40" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="S40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="T40" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="U40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="V40" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="W40" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="X40" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE40" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
+    <row r="40" customFormat="1"/>
     <row r="41" s="2" customFormat="1" spans="1:31">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
@@ -16826,101 +16627,7 @@
       <c r="AD49" s="15"/>
       <c r="AE49" s="15"/>
     </row>
-    <row r="50" s="2" customFormat="1" ht="29.5" hidden="1" spans="1:31">
-      <c r="A50" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="N50" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="O50" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="P50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="R50" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="S50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="T50" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="U50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="V50" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="W50" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="X50" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE50" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
+    <row r="50" customFormat="1"/>
     <row r="51" s="2" customFormat="1" spans="1:31">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
@@ -18737,24 +18444,6 @@
       <c r="AE105" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A16:AE56">
-    <filterColumn colId="21">
-      <filters>
-        <filter val="通信"/>
-        <filter val="轨道"/>
-        <filter val="车辆"/>
-        <filter val="信号"/>
-        <filter val="土建"/>
-        <filter val="AFC系统"/>
-        <filter val="PSD系统"/>
-        <filter val="通风空调系统"/>
-        <filter val="供电系统"/>
-        <filter val="接触网系统"/>
-        <filter val="低压供电系统"/>
-      </filters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
@@ -18774,7 +18463,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18826,14 +18515,12 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="22" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>128</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C2" s="26"/>
       <c r="D2" s="34"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
@@ -18860,16 +18547,14 @@
       <c r="AB2" s="19"/>
       <c r="AC2" s="18"/>
     </row>
-    <row r="3" ht="15.75" spans="1:29">
+    <row r="3" spans="1:29">
       <c r="A3" s="35" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>131</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -18900,9 +18585,9 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="e">
+      <c r="C4" s="7">
         <f t="shared" ref="C4:M4" si="0">C3-C2</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" si="0"/>
@@ -18944,9 +18629,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="7" t="e">
+      <c r="N4" s="7">
         <f>SUM(C4:M4)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="19"/>
@@ -19031,7 +18716,7 @@
       <c r="AB8" s="24"/>
       <c r="AC8" s="18"/>
     </row>
-    <row r="9" spans="13:29">
+    <row r="9" ht="15.75" spans="13:29">
       <c r="M9" s="40"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -19081,7 +18766,7 @@
   <dimension ref="A1:AM86"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B30"/>
+      <selection activeCell="C30" sqref="C30:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19542,49 +19227,49 @@
     </row>
     <row r="29" ht="15.75" spans="3:38">
       <c r="C29" s="20" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="Q29" s="20" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
@@ -19610,7 +19295,7 @@
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:38">
       <c r="A30" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C30" s="20">
         <v>335</v>
@@ -19720,7 +19405,7 @@
     </row>
     <row r="36" ht="15.75" spans="8:20">
       <c r="H36" s="22" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="I36" s="26">
         <v>1</v>
@@ -19761,7 +19446,7 @@
     </row>
     <row r="37" ht="15.75" spans="8:20">
       <c r="H37" s="22" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="I37" s="26">
         <v>0</v>
@@ -19802,7 +19487,7 @@
     </row>
     <row r="38" ht="15.75" spans="8:20">
       <c r="H38" s="22" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="I38" s="26">
         <v>0</v>
@@ -19843,7 +19528,7 @@
     </row>
     <row r="39" ht="15.75" spans="8:20">
       <c r="H39" s="22" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="I39" s="26">
         <v>0</v>
@@ -19884,7 +19569,7 @@
     </row>
     <row r="40" ht="15.75" spans="8:20">
       <c r="H40" s="22" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="I40" s="26">
         <v>2</v>
@@ -19925,7 +19610,7 @@
     </row>
     <row r="41" ht="15.75" spans="8:20">
       <c r="H41" s="22" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="I41" s="26">
         <v>0</v>
@@ -19966,7 +19651,7 @@
     </row>
     <row r="42" ht="15.75" spans="8:20">
       <c r="H42" s="22" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="I42" s="26">
         <v>3</v>
@@ -20007,7 +19692,7 @@
     </row>
     <row r="43" ht="15.75" spans="8:20">
       <c r="H43" s="22" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="I43" s="26">
         <v>0</v>
@@ -20048,7 +19733,7 @@
     </row>
     <row r="44" ht="15.75" spans="8:20">
       <c r="H44" s="22" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="I44" s="26">
         <v>1</v>
@@ -20089,7 +19774,7 @@
     </row>
     <row r="45" ht="15.75" spans="8:20">
       <c r="H45" s="22" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="I45" s="26">
         <v>0</v>
@@ -20130,7 +19815,7 @@
     </row>
     <row r="46" ht="15.75" spans="8:20">
       <c r="H46" s="22" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="I46" s="26">
         <v>1</v>
@@ -20171,7 +19856,7 @@
     </row>
     <row r="47" ht="15.75" spans="8:20">
       <c r="H47" s="22" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="I47" s="26">
         <v>2</v>
@@ -20212,7 +19897,7 @@
     </row>
     <row r="48" ht="15.75" spans="8:20">
       <c r="H48" s="22" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="I48" s="26">
         <v>1</v>
@@ -20253,7 +19938,7 @@
     </row>
     <row r="49" ht="15.75" spans="8:20">
       <c r="H49" s="22" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="I49" s="26">
         <v>1</v>
@@ -20294,7 +19979,7 @@
     </row>
     <row r="50" ht="15.75" spans="8:20">
       <c r="H50" s="22" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="I50" s="26">
         <v>2</v>
@@ -20875,19 +20560,19 @@
   <dimension ref="A1:AE927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A1" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="9.25"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -21075,7 +20760,7 @@
     <row r="9" ht="15.75"/>
     <row r="10" s="1" customFormat="1" ht="15.75" spans="1:18">
       <c r="A10" s="12" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
